--- a/05 ОВиК/specifikaciya.xlsx
+++ b/05 ОВиК/specifikaciya.xlsx
@@ -1013,7 +1013,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="3" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="4" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1077,15 +1077,15 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="6" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="6" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="6" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1208,7 +1208,7 @@
   </sheetPr>
   <dimension ref="A1:EA135"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A42" colorId="64" zoomScale="110" zoomScaleNormal="90" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A19" colorId="64" zoomScale="110" zoomScaleNormal="90" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection pane="topLeft" activeCell="N50" activeCellId="0" sqref="N50"/>
     </sheetView>
   </sheetViews>
@@ -1221,7 +1221,7 @@
     <col collapsed="false" hidden="false" max="110" min="8" style="0" width="1.08163265306122"/>
     <col collapsed="false" hidden="false" max="111" min="111" style="1" width="1.08163265306122"/>
     <col collapsed="false" hidden="false" max="125" min="112" style="0" width="1.08163265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="126" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="126" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17455,14 +17455,14 @@
   </sheetPr>
   <dimension ref="A1:DQ135"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="90" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N62" activeCellId="0" sqref="N62"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A58" colorId="64" zoomScale="110" zoomScaleNormal="90" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection pane="topLeft" activeCell="DI50" activeCellId="0" sqref="DI50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col collapsed="false" hidden="false" max="150" min="1" style="0" width="1.08163265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="151" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="151" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -34052,7 +34052,7 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col collapsed="false" hidden="false" max="150" min="1" style="0" width="1.08163265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="151" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="151" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
